--- a/pred_ohlcv/54_21/2019-10-27 ETH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 ETH ohlcv.xlsx
@@ -938,7 +938,7 @@
         <v>-1462.90316512553</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-1621.94546512553</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-1951.725957540932</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-1953.291157540932</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-1903.797057540932</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-2045.791907635989</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-1999.826857731046</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-1995.718257731046</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-1999.987557731046</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-1999.987557731046</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-1999.987557731046</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-1999.987557731046</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-1990.781757731046</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-1831.904857731046</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-1817.466457731046</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-1835.722457731046</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-1857.829557731046</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-1857.829557731046</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-1905.863557731046</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-1903.706957731046</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-2019.876657731046</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-1851.003457731046</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-1826.485357731046</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-1850.029057731046</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-1895.681057731046</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-1893.256157731046</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-1900.658357731046</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-1887.305357731046</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-1775.100757731046</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-1740.100757731046</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-1742.665657731046</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-1742.665657731046</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-1746.552957731046</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-1645.452457731046</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-1656.067657731046</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-1716.783057731046</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-1699.192057731046</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-1709.897757731046</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-1753.719257731046</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-1805.404657731046</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-1804.004957731046</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-1804.004957731046</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-1884.431257731046</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-1846.941257731046</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-1853.100357731046</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-1853.100357731046</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-1981.175657731046</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-1985.410557731046</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-1879.122057731046</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-1896.004657731046</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-1897.516257731046</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-1874.200057731046</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-1861.984557731046</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-1863.522759112656</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-1863.522759112656</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-1863.522759112656</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-1840.003259112656</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-1888.073159112656</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-1986.340863481355</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-3139.217395319399</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-3138.167395319399</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-3138.440395319399</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-3131.132395319399</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-3131.282395319399</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-3131.282395319399</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-3135.549395319399</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-3550.195995319399</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-3261.292619523103</v>
       </c>
       <c r="H293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-3702.805420073711</v>
       </c>
       <c r="H323">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-3702.805420073711</v>
       </c>
       <c r="H324">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-3702.805420073711</v>
       </c>
       <c r="H325">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-3709.745420073711</v>
       </c>
       <c r="H326">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-3692.371720073711</v>
       </c>
       <c r="H327">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-3681.481020073711</v>
       </c>
       <c r="H328">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-3772.18552007371</v>
       </c>
       <c r="H329">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-3772.18552007371</v>
       </c>
       <c r="H330">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-3756.49302007371</v>
       </c>
       <c r="H331">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-3761.874420073711</v>
       </c>
       <c r="H332">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-3747.002820073711</v>
       </c>
       <c r="H333">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-3743.152520073711</v>
       </c>
       <c r="H334">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-3747.422520073711</v>
       </c>
       <c r="H335">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-3748.722420073711</v>
       </c>
       <c r="H336">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-3764.836720073711</v>
       </c>
       <c r="H337">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-3763.866120073711</v>
       </c>
       <c r="H338">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-3730.686120073711</v>
       </c>
       <c r="H339">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-3702.284220073711</v>
       </c>
       <c r="H340">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-3702.284220073711</v>
       </c>
       <c r="H341">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-3741.694120073711</v>
       </c>
       <c r="H342">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-3823.317420073711</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-3694.489020073711</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-3331.568020073711</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-3331.568020073711</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-3366.059720073711</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-3360.819720073711</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-3220.222220073711</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-3051.983320073712</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-3046.983320073712</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-3048.983320073712</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-3051.983320073712</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-3052.083320073712</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-3052.083320073712</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-3052.494920073712</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-3061.388020073712</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-3069.195120073712</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-3034.895720073712</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-3024.433560304703</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-2626.807260304703</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-2603.385060304703</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-2603.385060304703</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-2603.385060304703</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-2603.385060304703</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-2585.435860304703</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-2583.907460304703</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-2588.907460304703</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-2615.761060304703</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-2615.775060304703</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-2615.775060304703</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-2615.775060304703</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-2610.693260304703</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-2632.211160304703</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-2622.380360304703</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-2626.108960304703</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-2626.444760304702</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-2655.297460304702</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-2671.038860304702</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-2666.972260304702</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-2665.367660304702</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-2677.677660304702</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-2677.677660304702</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-2702.505760304702</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-2702.505760304702</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-2701.525360304702</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-2699.525360304702</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-2567.456560304702</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-2593.043660304702</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-2590.666060304703</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-2580.629060304703</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-2635.113360304703</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-2635.113360304703</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-2650.811960304703</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-2618.157960304703</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-2315.783365751975</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-2265.402865751975</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>-2297.574365751975</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-2297.470065751975</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>-2297.470065751975</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-2323.805465751975</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-2323.805465751975</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-2323.805465751975</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-2325.782665751974</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-2327.791365463928</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>-2325.486865463928</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>-2329.664765463928</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>-2372.378265463928</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-2372.378265463928</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-2372.593165463928</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>-2369.065865463928</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>-2369.065865463928</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-2369.065865463928</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-2369.417065463928</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-2328.816565463928</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-2351.089465463928</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-2303.493465463928</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-2303.493465463928</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-2251.538165463928</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-2218.820465463928</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-2188.970065463928</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-2188.970065463928</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-2188.970065463928</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-2285.122765463928</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-2308.170865463928</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-2308.170865463928</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>-2262.605265463928</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>-2217.762865463928</v>
       </c>
       <c r="H561">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>-2204.710865463928</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>-2075.573765463928</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-2009.771065463928</v>
       </c>
       <c r="H564">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-1980.103565463928</v>
       </c>
       <c r="H565">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-1892.616365463928</v>
       </c>
       <c r="H566">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-2004.661539000339</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>-1984.064439000339</v>
       </c>
       <c r="H568">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>-1909.42638158994</v>
       </c>
       <c r="H569">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-1874.85628158994</v>
       </c>
       <c r="H570">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>-1898.04608158994</v>
       </c>
       <c r="H571">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>-1878.06358158994</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>-1878.06358158994</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-1757.48658158994</v>
       </c>
       <c r="H574">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>-1972.62758158994</v>
       </c>
       <c r="H575">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>-1951.91158158994</v>
       </c>
       <c r="H576">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>-1998.21508158994</v>
       </c>
       <c r="H577">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-2029.02408158994</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>-1993.77808158994</v>
       </c>
       <c r="H579">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>-1975.00358158994</v>
       </c>
       <c r="H580">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>-1915.650813973606</v>
       </c>
       <c r="H581">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>-2282.839113973606</v>
       </c>
       <c r="H582">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>-2525.128713973606</v>
       </c>
       <c r="H583">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>-2373.558313973606</v>
       </c>
       <c r="H584">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-2480.901713973606</v>
       </c>
       <c r="H585">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>-2463.645713973606</v>
       </c>
       <c r="H586">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>-2419.800413973606</v>
       </c>
       <c r="H587">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-2523.301324952126</v>
       </c>
       <c r="H588">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>-2523.301324952126</v>
       </c>
       <c r="H589">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-2547.385224952126</v>
       </c>
       <c r="H590">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-2547.385224952126</v>
       </c>
       <c r="H591">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-2622.988624952126</v>
       </c>
       <c r="H592">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-2591.665824952127</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-2591.665824952127</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-2591.665824952127</v>
       </c>
       <c r="H595">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-2331.376903952607</v>
       </c>
       <c r="H596">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-2355.102203952607</v>
       </c>
       <c r="H597">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-2276.552503952607</v>
       </c>
       <c r="H598">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>-2028.562742139053</v>
       </c>
       <c r="H871">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>-2028.562742139053</v>
       </c>
       <c r="H872">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>-2027.931942139053</v>
       </c>
       <c r="H873">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>-2027.931942139053</v>
       </c>
       <c r="H874">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>-1911.460542139053</v>
       </c>
       <c r="H875">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>-1918.034942139053</v>
       </c>
       <c r="H876">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>-1932.748842139053</v>
       </c>
       <c r="H877">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>-1903.614442139053</v>
       </c>
       <c r="H878">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>-1916.930342139053</v>
       </c>
       <c r="H879">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>-1916.668142139053</v>
       </c>
       <c r="H880">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>-1928.650842139053</v>
       </c>
       <c r="H881">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -26704,7 +26704,7 @@
         <v>-2079.840472358745</v>
       </c>
       <c r="H1012">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1013" spans="1:8">
@@ -26730,7 +26730,7 @@
         <v>-1998.510311728071</v>
       </c>
       <c r="H1013">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1014" spans="1:8">
@@ -26756,7 +26756,7 @@
         <v>-2052.086211728071</v>
       </c>
       <c r="H1014">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1015" spans="1:8">
@@ -26782,7 +26782,7 @@
         <v>-1845.231513351757</v>
       </c>
       <c r="H1015">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1016" spans="1:8">
@@ -26808,7 +26808,7 @@
         <v>-1892.714113351758</v>
       </c>
       <c r="H1016">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1017" spans="1:8">
@@ -26834,7 +26834,7 @@
         <v>-1911.634813351757</v>
       </c>
       <c r="H1017">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1018" spans="1:8">
@@ -26860,7 +26860,7 @@
         <v>-1910.03898201491</v>
       </c>
       <c r="H1018">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1019" spans="1:8">
@@ -26886,7 +26886,7 @@
         <v>-1916.69908201491</v>
       </c>
       <c r="H1019">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1020" spans="1:8">
@@ -26912,7 +26912,7 @@
         <v>-1890.32948201491</v>
       </c>
       <c r="H1020">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1021" spans="1:8">
@@ -26938,7 +26938,7 @@
         <v>-1853.34908201491</v>
       </c>
       <c r="H1021">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1022" spans="1:8">
@@ -26964,7 +26964,7 @@
         <v>-1865.73478201491</v>
       </c>
       <c r="H1022">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1023" spans="1:8">
@@ -26990,7 +26990,7 @@
         <v>-1941.411282014911</v>
       </c>
       <c r="H1023">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1024" spans="1:8">
@@ -27016,7 +27016,7 @@
         <v>-1899.434582014911</v>
       </c>
       <c r="H1024">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1025" spans="1:8">
@@ -27042,7 +27042,7 @@
         <v>-1893.757982014911</v>
       </c>
       <c r="H1025">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1026" spans="1:8">
@@ -27068,7 +27068,7 @@
         <v>-1898.989182014911</v>
       </c>
       <c r="H1026">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1027" spans="1:8">
@@ -27094,7 +27094,7 @@
         <v>-1861.73958201491</v>
       </c>
       <c r="H1027">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1028" spans="1:8">
@@ -27120,7 +27120,7 @@
         <v>-1881.67628201491</v>
       </c>
       <c r="H1028">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1029" spans="1:8">
@@ -27146,7 +27146,7 @@
         <v>-1775.97878201491</v>
       </c>
       <c r="H1029">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1030" spans="1:8">
@@ -27172,7 +27172,7 @@
         <v>-1650.14928201491</v>
       </c>
       <c r="H1030">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1031" spans="1:8">
@@ -27198,7 +27198,7 @@
         <v>-1758.37418201491</v>
       </c>
       <c r="H1031">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1032" spans="1:8">
@@ -27224,7 +27224,7 @@
         <v>-1666.42148201491</v>
       </c>
       <c r="H1032">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1033" spans="1:8">
@@ -27250,7 +27250,7 @@
         <v>-1750.45518201491</v>
       </c>
       <c r="H1033">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1034" spans="1:8">
@@ -27276,7 +27276,7 @@
         <v>-1794.33448201491</v>
       </c>
       <c r="H1034">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1035" spans="1:8">
@@ -27302,7 +27302,7 @@
         <v>-1794.33448201491</v>
       </c>
       <c r="H1035">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1036" spans="1:8">
@@ -27328,7 +27328,7 @@
         <v>-1794.33448201491</v>
       </c>
       <c r="H1036">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1037" spans="1:8">
@@ -27354,7 +27354,7 @@
         <v>-1835.84828201491</v>
       </c>
       <c r="H1037">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1038" spans="1:8">
@@ -27380,7 +27380,7 @@
         <v>-1835.84828201491</v>
       </c>
       <c r="H1038">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1039" spans="1:8">
@@ -27406,7 +27406,7 @@
         <v>-1826.704715300692</v>
       </c>
       <c r="H1039">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1040" spans="1:8">
@@ -27432,7 +27432,7 @@
         <v>-1888.564015300693</v>
       </c>
       <c r="H1040">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1041" spans="1:8">
@@ -27458,7 +27458,7 @@
         <v>-1888.564015300693</v>
       </c>
       <c r="H1041">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1042" spans="1:8">
@@ -27484,7 +27484,7 @@
         <v>-1888.564015300693</v>
       </c>
       <c r="H1042">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1043" spans="1:8">
@@ -27510,7 +27510,7 @@
         <v>-1888.564015300693</v>
       </c>
       <c r="H1043">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1044" spans="1:8">
@@ -27536,7 +27536,7 @@
         <v>-1882.610515300692</v>
       </c>
       <c r="H1044">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1045" spans="1:8">
@@ -27562,7 +27562,7 @@
         <v>-1924.172715300693</v>
       </c>
       <c r="H1045">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1046" spans="1:8">
@@ -27588,7 +27588,7 @@
         <v>-1924.172715300693</v>
       </c>
       <c r="H1046">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1047" spans="1:8">
@@ -27614,7 +27614,7 @@
         <v>-2217.966715300693</v>
       </c>
       <c r="H1047">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1048" spans="1:8">
@@ -27640,7 +27640,7 @@
         <v>-2219.233715300692</v>
       </c>
       <c r="H1048">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1049" spans="1:8">
@@ -27666,7 +27666,7 @@
         <v>-2219.233715300692</v>
       </c>
       <c r="H1049">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1050" spans="1:8">
@@ -27692,7 +27692,7 @@
         <v>-2233.841115300692</v>
       </c>
       <c r="H1050">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1051" spans="1:8">
@@ -27718,7 +27718,7 @@
         <v>-2233.841115300692</v>
       </c>
       <c r="H1051">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1052" spans="1:8">
@@ -27744,7 +27744,7 @@
         <v>-2233.841115300692</v>
       </c>
       <c r="H1052">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1053" spans="1:8">
@@ -27770,7 +27770,7 @@
         <v>-2287.184515300693</v>
       </c>
       <c r="H1053">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1054" spans="1:8">
@@ -27796,7 +27796,7 @@
         <v>-2297.608515300692</v>
       </c>
       <c r="H1054">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1055" spans="1:8">
@@ -27822,7 +27822,7 @@
         <v>-2357.835915300693</v>
       </c>
       <c r="H1055">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1056" spans="1:8">
@@ -27848,7 +27848,7 @@
         <v>-2348.850015300693</v>
       </c>
       <c r="H1056">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1057" spans="1:8">
@@ -27874,7 +27874,7 @@
         <v>-2350.007215300693</v>
       </c>
       <c r="H1057">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1058" spans="1:8">
@@ -27900,7 +27900,7 @@
         <v>-2309.901315300693</v>
       </c>
       <c r="H1058">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1059" spans="1:8">
@@ -27926,7 +27926,7 @@
         <v>-2278.254515300693</v>
       </c>
       <c r="H1059">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1060" spans="1:8">
@@ -27952,7 +27952,7 @@
         <v>-2278.254515300693</v>
       </c>
       <c r="H1060">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1061" spans="1:8">
@@ -27978,7 +27978,7 @@
         <v>-2229.757715300693</v>
       </c>
       <c r="H1061">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1062" spans="1:8">
@@ -28004,7 +28004,7 @@
         <v>-2229.757715300693</v>
       </c>
       <c r="H1062">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1063" spans="1:8">
@@ -28030,7 +28030,7 @@
         <v>-2205.565415300693</v>
       </c>
       <c r="H1063">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1064" spans="1:8">
@@ -28056,7 +28056,7 @@
         <v>-2515.247715300693</v>
       </c>
       <c r="H1064">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1065" spans="1:8">
@@ -28082,7 +28082,7 @@
         <v>-2306.544715300693</v>
       </c>
       <c r="H1065">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1066" spans="1:8">
@@ -28108,7 +28108,7 @@
         <v>-2318.271415300693</v>
       </c>
       <c r="H1066">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1067" spans="1:8">
@@ -28134,7 +28134,7 @@
         <v>-2306.038515300693</v>
       </c>
       <c r="H1067">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1068" spans="1:8">
@@ -28160,7 +28160,7 @@
         <v>-2313.935115300693</v>
       </c>
       <c r="H1068">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1069" spans="1:8">
@@ -28186,7 +28186,7 @@
         <v>-2292.662315300693</v>
       </c>
       <c r="H1069">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1070" spans="1:8">
@@ -28212,7 +28212,7 @@
         <v>-2296.510715300692</v>
       </c>
       <c r="H1070">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1071" spans="1:8">
@@ -28238,7 +28238,7 @@
         <v>-2290.694615300692</v>
       </c>
       <c r="H1071">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1072" spans="1:8">
@@ -28264,7 +28264,7 @@
         <v>-2288.242015300692</v>
       </c>
       <c r="H1072">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1073" spans="1:8">
@@ -28290,7 +28290,7 @@
         <v>-2288.242015300692</v>
       </c>
       <c r="H1073">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1074" spans="1:8">
@@ -28316,7 +28316,7 @@
         <v>-2134.344415300692</v>
       </c>
       <c r="H1074">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1075" spans="1:8">
@@ -28342,7 +28342,7 @@
         <v>-2091.681015300692</v>
       </c>
       <c r="H1075">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1076" spans="1:8">
@@ -28368,7 +28368,7 @@
         <v>-2109.169715300692</v>
       </c>
       <c r="H1076">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1077" spans="1:8">
@@ -28394,7 +28394,7 @@
         <v>-2119.152915300692</v>
       </c>
       <c r="H1077">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1078" spans="1:8">
@@ -28420,7 +28420,7 @@
         <v>-2112.616515300692</v>
       </c>
       <c r="H1078">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1079" spans="1:8">
@@ -28602,7 +28602,7 @@
         <v>-2087.739567794754</v>
       </c>
       <c r="H1085">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1086" spans="1:8">
@@ -28628,7 +28628,7 @@
         <v>-2097.819867794754</v>
       </c>
       <c r="H1086">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1087" spans="1:8">
@@ -28654,7 +28654,7 @@
         <v>-2097.819867794754</v>
       </c>
       <c r="H1087">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1088" spans="1:8">
@@ -28680,7 +28680,7 @@
         <v>-2096.814967794754</v>
       </c>
       <c r="H1088">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1089" spans="1:8">
@@ -28706,7 +28706,7 @@
         <v>-2096.814967794754</v>
       </c>
       <c r="H1089">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1090" spans="1:8">
@@ -28732,7 +28732,7 @@
         <v>-2096.814967794754</v>
       </c>
       <c r="H1090">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1091" spans="1:8">
@@ -28758,7 +28758,7 @@
         <v>-2096.814967794754</v>
       </c>
       <c r="H1091">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1092" spans="1:8">
@@ -28784,7 +28784,7 @@
         <v>-2096.814967794754</v>
       </c>
       <c r="H1092">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1093" spans="1:8">
@@ -28810,7 +28810,7 @@
         <v>-2077.990867794755</v>
       </c>
       <c r="H1093">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1094" spans="1:8">
@@ -28836,7 +28836,7 @@
         <v>-1977.833667794755</v>
       </c>
       <c r="H1094">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1095" spans="1:8">
@@ -28862,7 +28862,7 @@
         <v>-1778.794367794755</v>
       </c>
       <c r="H1095">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1096" spans="1:8">
@@ -28888,7 +28888,7 @@
         <v>-1737.382267794755</v>
       </c>
       <c r="H1096">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1097" spans="1:8">
@@ -30292,7 +30292,7 @@
         <v>-154.9796683968128</v>
       </c>
       <c r="H1150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1151" spans="1:8">
@@ -30318,7 +30318,7 @@
         <v>-311.1226683968127</v>
       </c>
       <c r="H1151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1152" spans="1:8">
@@ -30344,7 +30344,7 @@
         <v>-421.1133683968127</v>
       </c>
       <c r="H1152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1153" spans="1:8">
@@ -30422,7 +30422,7 @@
         <v>-275.5253683968127</v>
       </c>
       <c r="H1155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1156" spans="1:8">
@@ -30448,7 +30448,7 @@
         <v>-344.1313683968127</v>
       </c>
       <c r="H1156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1157" spans="1:8">
@@ -30474,7 +30474,7 @@
         <v>-324.7230048410498</v>
       </c>
       <c r="H1157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1158" spans="1:8">
@@ -30500,7 +30500,7 @@
         <v>-276.8140048410498</v>
       </c>
       <c r="H1158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1159" spans="1:8">
@@ -30526,7 +30526,7 @@
         <v>-128.5295048410498</v>
       </c>
       <c r="H1159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1160" spans="1:8">
@@ -30552,7 +30552,7 @@
         <v>586.7514951589502</v>
       </c>
       <c r="H1160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1161" spans="1:8">
@@ -30578,7 +30578,7 @@
         <v>567.9792951589502</v>
       </c>
       <c r="H1161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1162" spans="1:8">
@@ -30604,7 +30604,7 @@
         <v>746.0671951589502</v>
       </c>
       <c r="H1162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1163" spans="1:8">
@@ -30630,7 +30630,7 @@
         <v>690.1461951589501</v>
       </c>
       <c r="H1163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1164" spans="1:8">
@@ -30656,7 +30656,7 @@
         <v>667.1854951589502</v>
       </c>
       <c r="H1164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1165" spans="1:8">
@@ -30682,7 +30682,7 @@
         <v>647.7375951589502</v>
       </c>
       <c r="H1165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1166" spans="1:8">
@@ -30708,7 +30708,7 @@
         <v>671.6234951589502</v>
       </c>
       <c r="H1166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1167" spans="1:8">
@@ -30734,7 +30734,7 @@
         <v>863.6287951589502</v>
       </c>
       <c r="H1167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1168" spans="1:8">
@@ -30760,7 +30760,7 @@
         <v>729.9855951589502</v>
       </c>
       <c r="H1168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1169" spans="1:8">
@@ -30786,7 +30786,7 @@
         <v>668.3932951589502</v>
       </c>
       <c r="H1169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1170" spans="1:8">
@@ -30812,7 +30812,7 @@
         <v>668.3932951589502</v>
       </c>
       <c r="H1170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1171" spans="1:8">
@@ -30838,7 +30838,7 @@
         <v>785.7656840063604</v>
       </c>
       <c r="H1171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1172" spans="1:8">
@@ -30864,7 +30864,7 @@
         <v>573.8434840063604</v>
       </c>
       <c r="H1172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1173" spans="1:8">
@@ -30890,7 +30890,7 @@
         <v>220.3468840063604</v>
       </c>
       <c r="H1173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1174" spans="1:8">
@@ -30916,7 +30916,7 @@
         <v>-32.69641599363956</v>
       </c>
       <c r="H1174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1175" spans="1:8">
@@ -30942,7 +30942,7 @@
         <v>-596.3725176516216</v>
       </c>
       <c r="H1175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1176" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-27 ETH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 ETH ohlcv.xlsx
@@ -938,7 +938,7 @@
         <v>-1462.90316512553</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-1621.94546512553</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-1951.725957540932</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-1953.291157540932</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-1903.797057540932</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-2045.791907635989</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-1999.826857731046</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-1995.718257731046</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-1999.987557731046</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-1999.987557731046</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-1999.987557731046</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-1999.987557731046</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-1990.781757731046</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-1831.904857731046</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-1817.466457731046</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-1835.722457731046</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-1857.829557731046</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-1857.829557731046</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-1905.863557731046</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-1903.706957731046</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-2019.876657731046</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-1851.003457731046</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-1826.485357731046</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-1850.029057731046</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-1895.681057731046</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-1893.256157731046</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-1900.658357731046</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-1887.305357731046</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-1775.100757731046</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-1740.100757731046</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-1742.665657731046</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-1742.665657731046</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-1746.552957731046</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-1645.452457731046</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-1656.067657731046</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-1716.783057731046</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-1699.192057731046</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-1709.897757731046</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-1753.719257731046</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-1805.404657731046</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-1804.004957731046</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-1804.004957731046</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-1884.431257731046</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-1846.941257731046</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-1853.100357731046</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-1853.100357731046</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-1981.175657731046</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-1985.410557731046</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-1879.122057731046</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-1896.004657731046</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-1897.516257731046</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-1874.200057731046</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-1861.984557731046</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-1863.522759112656</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-1863.522759112656</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-1863.522759112656</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-1840.003259112656</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-1888.073159112656</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-1986.340863481355</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-3139.217395319399</v>
       </c>
       <c r="H279">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-3138.167395319399</v>
       </c>
       <c r="H280">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-3138.440395319399</v>
       </c>
       <c r="H281">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-3131.132395319399</v>
       </c>
       <c r="H282">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-3131.282395319399</v>
       </c>
       <c r="H283">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-3131.282395319399</v>
       </c>
       <c r="H284">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-3135.549395319399</v>
       </c>
       <c r="H285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-3192.193795319399</v>
       </c>
       <c r="H286">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-3897.597095319399</v>
       </c>
       <c r="H287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-3550.195995319399</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-3617.280695319399</v>
       </c>
       <c r="H289">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-3261.292619523103</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-3305.137919523102</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-3306.601919523102</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-3310.719119523103</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-3310.719119523103</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-3314.176919523103</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-3333.909919523103</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-3682.779719523103</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-3709.207920073711</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-3702.805420073711</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-3702.805420073711</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-3702.805420073711</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-3709.745420073711</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-3692.371720073711</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-3681.481020073711</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-3772.18552007371</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-3772.18552007371</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-3756.49302007371</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-3761.874420073711</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-3747.002820073711</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-3743.152520073711</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-3747.422520073711</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-3748.722420073711</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-3764.836720073711</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-3763.866120073711</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-3730.686120073711</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-3702.284220073711</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-3702.284220073711</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-3741.694120073711</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-3855.297020073711</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-3331.568020073711</v>
       </c>
       <c r="H347">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-3366.059720073711</v>
       </c>
       <c r="H348">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-3360.819720073711</v>
       </c>
       <c r="H349">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-3220.222220073711</v>
       </c>
       <c r="H350">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-3051.983320073712</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-3046.983320073712</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-3048.983320073712</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-3051.983320073712</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-3052.083320073712</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-3052.083320073712</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-3052.494920073712</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-3061.388020073712</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-3069.195120073712</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-3034.895720073712</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-3024.433560304703</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-2626.807260304703</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-2603.385060304703</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-2603.385060304703</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-2603.385060304703</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-2603.385060304703</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-2585.435860304703</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-2583.907460304703</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-2588.907460304703</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-2615.761060304703</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-2615.775060304703</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-2615.775060304703</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-2615.775060304703</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-2610.693260304703</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-2632.211160304703</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-2622.380360304703</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-2626.108960304703</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-2626.444760304702</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-2655.297460304702</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-2671.038860304702</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-2666.972260304702</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-2665.367660304702</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-2677.677660304702</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-2677.677660304702</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-2702.505760304702</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-2702.505760304702</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-2701.525360304702</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-2699.525360304702</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-2567.456560304702</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-2593.043660304702</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-2590.666060304703</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-2580.629060304703</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-2635.113360304703</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-2635.113360304703</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-2650.811960304703</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-2618.157960304703</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-2315.783365751975</v>
       </c>
       <c r="H529">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-2265.402865751975</v>
       </c>
       <c r="H530">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>-2297.574365751975</v>
       </c>
       <c r="H531">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-2297.470065751975</v>
       </c>
       <c r="H532">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>-2297.470065751975</v>
       </c>
       <c r="H533">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-2323.805465751975</v>
       </c>
       <c r="H534">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-2323.805465751975</v>
       </c>
       <c r="H535">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-2323.805465751975</v>
       </c>
       <c r="H536">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-2325.782665751974</v>
       </c>
       <c r="H537">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-2327.791365463928</v>
       </c>
       <c r="H538">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>-2325.486865463928</v>
       </c>
       <c r="H539">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>-2329.664765463928</v>
       </c>
       <c r="H540">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>-2372.378265463928</v>
       </c>
       <c r="H541">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-2372.378265463928</v>
       </c>
       <c r="H542">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-2372.593165463928</v>
       </c>
       <c r="H543">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>-2369.065865463928</v>
       </c>
       <c r="H544">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>-2369.065865463928</v>
       </c>
       <c r="H545">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-2369.065865463928</v>
       </c>
       <c r="H546">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-2369.417065463928</v>
       </c>
       <c r="H547">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-2328.816565463928</v>
       </c>
       <c r="H548">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-2351.089465463928</v>
       </c>
       <c r="H549">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-2303.493465463928</v>
       </c>
       <c r="H550">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-2303.493465463928</v>
       </c>
       <c r="H551">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-2251.538165463928</v>
       </c>
       <c r="H552">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-2218.820465463928</v>
       </c>
       <c r="H553">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-2188.970065463928</v>
       </c>
       <c r="H554">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-2188.970065463928</v>
       </c>
       <c r="H555">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-2188.970065463928</v>
       </c>
       <c r="H556">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-2285.122765463928</v>
       </c>
       <c r="H557">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-2308.170865463928</v>
       </c>
       <c r="H558">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-2308.170865463928</v>
       </c>
       <c r="H559">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>-2262.605265463928</v>
       </c>
       <c r="H560">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>-2217.762865463928</v>
       </c>
       <c r="H561">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>-2204.710865463928</v>
       </c>
       <c r="H562">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>-2075.573765463928</v>
       </c>
       <c r="H563">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-2009.771065463928</v>
       </c>
       <c r="H564">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-1980.103565463928</v>
       </c>
       <c r="H565">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-1892.616365463928</v>
       </c>
       <c r="H566">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-2004.661539000339</v>
       </c>
       <c r="H567">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>-1984.064439000339</v>
       </c>
       <c r="H568">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>-1909.42638158994</v>
       </c>
       <c r="H569">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-1874.85628158994</v>
       </c>
       <c r="H570">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>-1898.04608158994</v>
       </c>
       <c r="H571">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>-1878.06358158994</v>
       </c>
       <c r="H572">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>-1878.06358158994</v>
       </c>
       <c r="H573">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-1757.48658158994</v>
       </c>
       <c r="H574">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>-1972.62758158994</v>
       </c>
       <c r="H575">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>-1951.91158158994</v>
       </c>
       <c r="H576">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>-1998.21508158994</v>
       </c>
       <c r="H577">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-2029.02408158994</v>
       </c>
       <c r="H578">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>-1993.77808158994</v>
       </c>
       <c r="H579">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>-1975.00358158994</v>
       </c>
       <c r="H580">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>-1915.650813973606</v>
       </c>
       <c r="H581">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>-2282.839113973606</v>
       </c>
       <c r="H582">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>-2525.128713973606</v>
       </c>
       <c r="H583">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>-2373.558313973606</v>
       </c>
       <c r="H584">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-2480.901713973606</v>
       </c>
       <c r="H585">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>-2463.645713973606</v>
       </c>
       <c r="H586">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>-2419.800413973606</v>
       </c>
       <c r="H587">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-2523.301324952126</v>
       </c>
       <c r="H588">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>-2523.301324952126</v>
       </c>
       <c r="H589">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-2547.385224952126</v>
       </c>
       <c r="H590">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-2547.385224952126</v>
       </c>
       <c r="H591">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-2622.988624952126</v>
       </c>
       <c r="H592">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-2591.665824952127</v>
       </c>
       <c r="H593">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-2591.665824952127</v>
       </c>
       <c r="H594">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-2591.665824952127</v>
       </c>
       <c r="H595">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-2331.376903952607</v>
       </c>
       <c r="H596">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-2355.102203952607</v>
       </c>
       <c r="H597">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-2276.552503952607</v>
       </c>
       <c r="H598">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>-2028.562742139053</v>
       </c>
       <c r="H871">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>-2028.562742139053</v>
       </c>
       <c r="H872">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>-2027.931942139053</v>
       </c>
       <c r="H873">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>-2027.931942139053</v>
       </c>
       <c r="H874">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>-1911.460542139053</v>
       </c>
       <c r="H875">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>-1918.034942139053</v>
       </c>
       <c r="H876">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>-1932.748842139053</v>
       </c>
       <c r="H877">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>-1903.614442139053</v>
       </c>
       <c r="H878">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>-1916.930342139053</v>
       </c>
       <c r="H879">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>-1916.668142139053</v>
       </c>
       <c r="H880">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>-1928.650842139053</v>
       </c>
       <c r="H881">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -26704,7 +26704,7 @@
         <v>-2079.840472358745</v>
       </c>
       <c r="H1012">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1013" spans="1:8">
@@ -26730,7 +26730,7 @@
         <v>-1998.510311728071</v>
       </c>
       <c r="H1013">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1014" spans="1:8">
@@ -26756,7 +26756,7 @@
         <v>-2052.086211728071</v>
       </c>
       <c r="H1014">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1015" spans="1:8">
@@ -26782,7 +26782,7 @@
         <v>-1845.231513351757</v>
       </c>
       <c r="H1015">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1016" spans="1:8">
@@ -26808,7 +26808,7 @@
         <v>-1892.714113351758</v>
       </c>
       <c r="H1016">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1017" spans="1:8">
@@ -26834,7 +26834,7 @@
         <v>-1911.634813351757</v>
       </c>
       <c r="H1017">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1018" spans="1:8">
@@ -26860,7 +26860,7 @@
         <v>-1910.03898201491</v>
       </c>
       <c r="H1018">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1019" spans="1:8">
@@ -26886,7 +26886,7 @@
         <v>-1916.69908201491</v>
       </c>
       <c r="H1019">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1020" spans="1:8">
@@ -26912,7 +26912,7 @@
         <v>-1890.32948201491</v>
       </c>
       <c r="H1020">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1021" spans="1:8">
@@ -26938,7 +26938,7 @@
         <v>-1853.34908201491</v>
       </c>
       <c r="H1021">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1022" spans="1:8">
@@ -26964,7 +26964,7 @@
         <v>-1865.73478201491</v>
       </c>
       <c r="H1022">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1023" spans="1:8">
@@ -26990,7 +26990,7 @@
         <v>-1941.411282014911</v>
       </c>
       <c r="H1023">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1024" spans="1:8">
@@ -27016,7 +27016,7 @@
         <v>-1899.434582014911</v>
       </c>
       <c r="H1024">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1025" spans="1:8">
@@ -27042,7 +27042,7 @@
         <v>-1893.757982014911</v>
       </c>
       <c r="H1025">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1026" spans="1:8">
@@ -27068,7 +27068,7 @@
         <v>-1898.989182014911</v>
       </c>
       <c r="H1026">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1027" spans="1:8">
@@ -27094,7 +27094,7 @@
         <v>-1861.73958201491</v>
       </c>
       <c r="H1027">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1028" spans="1:8">
@@ -27120,7 +27120,7 @@
         <v>-1881.67628201491</v>
       </c>
       <c r="H1028">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1029" spans="1:8">
@@ -27146,7 +27146,7 @@
         <v>-1775.97878201491</v>
       </c>
       <c r="H1029">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1030" spans="1:8">
@@ -27172,7 +27172,7 @@
         <v>-1650.14928201491</v>
       </c>
       <c r="H1030">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1031" spans="1:8">
@@ -27198,7 +27198,7 @@
         <v>-1758.37418201491</v>
       </c>
       <c r="H1031">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1032" spans="1:8">
@@ -27224,7 +27224,7 @@
         <v>-1666.42148201491</v>
       </c>
       <c r="H1032">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1033" spans="1:8">
@@ -27250,7 +27250,7 @@
         <v>-1750.45518201491</v>
       </c>
       <c r="H1033">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1034" spans="1:8">
@@ -27276,7 +27276,7 @@
         <v>-1794.33448201491</v>
       </c>
       <c r="H1034">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1035" spans="1:8">
@@ -27302,7 +27302,7 @@
         <v>-1794.33448201491</v>
       </c>
       <c r="H1035">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1036" spans="1:8">
@@ -27328,7 +27328,7 @@
         <v>-1794.33448201491</v>
       </c>
       <c r="H1036">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1037" spans="1:8">
@@ -27354,7 +27354,7 @@
         <v>-1835.84828201491</v>
       </c>
       <c r="H1037">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1038" spans="1:8">
@@ -27380,7 +27380,7 @@
         <v>-1835.84828201491</v>
       </c>
       <c r="H1038">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1039" spans="1:8">
@@ -27406,7 +27406,7 @@
         <v>-1826.704715300692</v>
       </c>
       <c r="H1039">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1040" spans="1:8">
@@ -27432,7 +27432,7 @@
         <v>-1888.564015300693</v>
       </c>
       <c r="H1040">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1041" spans="1:8">
@@ -27458,7 +27458,7 @@
         <v>-1888.564015300693</v>
       </c>
       <c r="H1041">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1042" spans="1:8">
@@ -27484,7 +27484,7 @@
         <v>-1888.564015300693</v>
       </c>
       <c r="H1042">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1043" spans="1:8">
@@ -27510,7 +27510,7 @@
         <v>-1888.564015300693</v>
       </c>
       <c r="H1043">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1044" spans="1:8">
@@ -27536,7 +27536,7 @@
         <v>-1882.610515300692</v>
       </c>
       <c r="H1044">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1045" spans="1:8">
@@ -27562,7 +27562,7 @@
         <v>-1924.172715300693</v>
       </c>
       <c r="H1045">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1046" spans="1:8">
@@ -27588,7 +27588,7 @@
         <v>-1924.172715300693</v>
       </c>
       <c r="H1046">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1047" spans="1:8">
@@ -27614,7 +27614,7 @@
         <v>-2217.966715300693</v>
       </c>
       <c r="H1047">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1048" spans="1:8">
@@ -27640,7 +27640,7 @@
         <v>-2219.233715300692</v>
       </c>
       <c r="H1048">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1049" spans="1:8">
@@ -27666,7 +27666,7 @@
         <v>-2219.233715300692</v>
       </c>
       <c r="H1049">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1050" spans="1:8">
@@ -27692,7 +27692,7 @@
         <v>-2233.841115300692</v>
       </c>
       <c r="H1050">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1051" spans="1:8">
@@ -27718,7 +27718,7 @@
         <v>-2233.841115300692</v>
       </c>
       <c r="H1051">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1052" spans="1:8">
@@ -27744,7 +27744,7 @@
         <v>-2233.841115300692</v>
       </c>
       <c r="H1052">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1053" spans="1:8">
@@ -27770,7 +27770,7 @@
         <v>-2287.184515300693</v>
       </c>
       <c r="H1053">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1054" spans="1:8">
@@ -27796,7 +27796,7 @@
         <v>-2297.608515300692</v>
       </c>
       <c r="H1054">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1055" spans="1:8">
@@ -27822,7 +27822,7 @@
         <v>-2357.835915300693</v>
       </c>
       <c r="H1055">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1056" spans="1:8">
@@ -27848,7 +27848,7 @@
         <v>-2348.850015300693</v>
       </c>
       <c r="H1056">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1057" spans="1:8">
@@ -27874,7 +27874,7 @@
         <v>-2350.007215300693</v>
       </c>
       <c r="H1057">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1058" spans="1:8">
@@ -27900,7 +27900,7 @@
         <v>-2309.901315300693</v>
       </c>
       <c r="H1058">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1059" spans="1:8">
@@ -27926,7 +27926,7 @@
         <v>-2278.254515300693</v>
       </c>
       <c r="H1059">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1060" spans="1:8">
@@ -27952,7 +27952,7 @@
         <v>-2278.254515300693</v>
       </c>
       <c r="H1060">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1061" spans="1:8">
@@ -27978,7 +27978,7 @@
         <v>-2229.757715300693</v>
       </c>
       <c r="H1061">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1062" spans="1:8">
@@ -28004,7 +28004,7 @@
         <v>-2229.757715300693</v>
       </c>
       <c r="H1062">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1063" spans="1:8">
@@ -28030,7 +28030,7 @@
         <v>-2205.565415300693</v>
       </c>
       <c r="H1063">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1064" spans="1:8">
@@ -28056,7 +28056,7 @@
         <v>-2515.247715300693</v>
       </c>
       <c r="H1064">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1065" spans="1:8">
@@ -28082,7 +28082,7 @@
         <v>-2306.544715300693</v>
       </c>
       <c r="H1065">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1066" spans="1:8">
@@ -28108,7 +28108,7 @@
         <v>-2318.271415300693</v>
       </c>
       <c r="H1066">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1067" spans="1:8">
@@ -28134,7 +28134,7 @@
         <v>-2306.038515300693</v>
       </c>
       <c r="H1067">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1068" spans="1:8">
@@ -28160,7 +28160,7 @@
         <v>-2313.935115300693</v>
       </c>
       <c r="H1068">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1069" spans="1:8">
@@ -28186,7 +28186,7 @@
         <v>-2292.662315300693</v>
       </c>
       <c r="H1069">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1070" spans="1:8">
@@ -28212,7 +28212,7 @@
         <v>-2296.510715300692</v>
       </c>
       <c r="H1070">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1071" spans="1:8">
@@ -28238,7 +28238,7 @@
         <v>-2290.694615300692</v>
       </c>
       <c r="H1071">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1072" spans="1:8">
@@ -28264,7 +28264,7 @@
         <v>-2288.242015300692</v>
       </c>
       <c r="H1072">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1073" spans="1:8">
@@ -28290,7 +28290,7 @@
         <v>-2288.242015300692</v>
       </c>
       <c r="H1073">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1074" spans="1:8">
@@ -28316,7 +28316,7 @@
         <v>-2134.344415300692</v>
       </c>
       <c r="H1074">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1075" spans="1:8">
@@ -28342,7 +28342,7 @@
         <v>-2091.681015300692</v>
       </c>
       <c r="H1075">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1076" spans="1:8">
@@ -28368,7 +28368,7 @@
         <v>-2109.169715300692</v>
       </c>
       <c r="H1076">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1077" spans="1:8">
@@ -28394,7 +28394,7 @@
         <v>-2119.152915300692</v>
       </c>
       <c r="H1077">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1078" spans="1:8">
@@ -28420,7 +28420,7 @@
         <v>-2112.616515300692</v>
       </c>
       <c r="H1078">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1079" spans="1:8">
@@ -28602,7 +28602,7 @@
         <v>-2087.739567794754</v>
       </c>
       <c r="H1085">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1086" spans="1:8">
@@ -28628,7 +28628,7 @@
         <v>-2097.819867794754</v>
       </c>
       <c r="H1086">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1087" spans="1:8">
@@ -28654,7 +28654,7 @@
         <v>-2097.819867794754</v>
       </c>
       <c r="H1087">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1088" spans="1:8">
@@ -28680,7 +28680,7 @@
         <v>-2096.814967794754</v>
       </c>
       <c r="H1088">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1089" spans="1:8">
@@ -28706,7 +28706,7 @@
         <v>-2096.814967794754</v>
       </c>
       <c r="H1089">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1090" spans="1:8">
@@ -28732,7 +28732,7 @@
         <v>-2096.814967794754</v>
       </c>
       <c r="H1090">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1091" spans="1:8">
@@ -28758,7 +28758,7 @@
         <v>-2096.814967794754</v>
       </c>
       <c r="H1091">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1092" spans="1:8">
@@ -28784,7 +28784,7 @@
         <v>-2096.814967794754</v>
       </c>
       <c r="H1092">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1093" spans="1:8">
@@ -28810,7 +28810,7 @@
         <v>-2077.990867794755</v>
       </c>
       <c r="H1093">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1094" spans="1:8">
@@ -28836,7 +28836,7 @@
         <v>-1977.833667794755</v>
       </c>
       <c r="H1094">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1095" spans="1:8">
@@ -28862,7 +28862,7 @@
         <v>-1778.794367794755</v>
       </c>
       <c r="H1095">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1096" spans="1:8">
@@ -28888,7 +28888,7 @@
         <v>-1737.382267794755</v>
       </c>
       <c r="H1096">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1097" spans="1:8">
@@ -30214,7 +30214,7 @@
         <v>-24.85895444332439</v>
       </c>
       <c r="H1147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1148" spans="1:8">
@@ -30240,7 +30240,7 @@
         <v>248.9293455566756</v>
       </c>
       <c r="H1148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1149" spans="1:8">
@@ -30266,7 +30266,7 @@
         <v>-80.94346839681279</v>
       </c>
       <c r="H1149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1150" spans="1:8">
@@ -30292,7 +30292,7 @@
         <v>-154.9796683968128</v>
       </c>
       <c r="H1150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1151" spans="1:8">
@@ -30318,7 +30318,7 @@
         <v>-311.1226683968127</v>
       </c>
       <c r="H1151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1152" spans="1:8">
@@ -30344,7 +30344,7 @@
         <v>-421.1133683968127</v>
       </c>
       <c r="H1152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1153" spans="1:8">
@@ -30370,7 +30370,7 @@
         <v>-227.5176683968128</v>
       </c>
       <c r="H1153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1154" spans="1:8">
@@ -30396,7 +30396,7 @@
         <v>-224.0969683968127</v>
       </c>
       <c r="H1154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1155" spans="1:8">
@@ -30422,7 +30422,7 @@
         <v>-275.5253683968127</v>
       </c>
       <c r="H1155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1156" spans="1:8">
@@ -30448,7 +30448,7 @@
         <v>-344.1313683968127</v>
       </c>
       <c r="H1156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1157" spans="1:8">
@@ -30474,7 +30474,7 @@
         <v>-324.7230048410498</v>
       </c>
       <c r="H1157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1158" spans="1:8">
@@ -30500,7 +30500,7 @@
         <v>-276.8140048410498</v>
       </c>
       <c r="H1158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1159" spans="1:8">
@@ -30526,7 +30526,7 @@
         <v>-128.5295048410498</v>
       </c>
       <c r="H1159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1160" spans="1:8">
@@ -30552,7 +30552,7 @@
         <v>586.7514951589502</v>
       </c>
       <c r="H1160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1161" spans="1:8">
@@ -30578,7 +30578,7 @@
         <v>567.9792951589502</v>
       </c>
       <c r="H1161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1162" spans="1:8">
@@ -30604,7 +30604,7 @@
         <v>746.0671951589502</v>
       </c>
       <c r="H1162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1163" spans="1:8">
@@ -30630,7 +30630,7 @@
         <v>690.1461951589501</v>
       </c>
       <c r="H1163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1164" spans="1:8">
@@ -30656,7 +30656,7 @@
         <v>667.1854951589502</v>
       </c>
       <c r="H1164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1165" spans="1:8">
@@ -30682,7 +30682,7 @@
         <v>647.7375951589502</v>
       </c>
       <c r="H1165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1166" spans="1:8">
@@ -30708,7 +30708,7 @@
         <v>671.6234951589502</v>
       </c>
       <c r="H1166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1167" spans="1:8">
@@ -30734,7 +30734,7 @@
         <v>863.6287951589502</v>
       </c>
       <c r="H1167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1168" spans="1:8">
@@ -30760,7 +30760,7 @@
         <v>729.9855951589502</v>
       </c>
       <c r="H1168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1169" spans="1:8">
@@ -30786,7 +30786,7 @@
         <v>668.3932951589502</v>
       </c>
       <c r="H1169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1170" spans="1:8">
@@ -30812,7 +30812,7 @@
         <v>668.3932951589502</v>
       </c>
       <c r="H1170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1171" spans="1:8">
@@ -30838,7 +30838,7 @@
         <v>785.7656840063604</v>
       </c>
       <c r="H1171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1172" spans="1:8">
@@ -30864,7 +30864,7 @@
         <v>573.8434840063604</v>
       </c>
       <c r="H1172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1173" spans="1:8">
@@ -30890,7 +30890,7 @@
         <v>220.3468840063604</v>
       </c>
       <c r="H1173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1174" spans="1:8">
@@ -30916,7 +30916,7 @@
         <v>-32.69641599363956</v>
       </c>
       <c r="H1174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1175" spans="1:8">
